--- a/capiq_data/in_process_data/IQ739693.xlsx
+++ b/capiq_data/in_process_data/IQ739693.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE17933-2DB5-4990-A4BC-132E4ECB7CB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34406B95-EADF-4B4C-9F2C-4E59347FF3ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"9bea1bb6-9024-4db1-8cd2-c3d8a792045c"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"4fefd7ac-02d1-451c-8c66-76e2d08488c9"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>540</v>
+        <v>415</v>
       </c>
       <c r="D2">
-        <v>13773</v>
+        <v>6883</v>
       </c>
       <c r="E2">
-        <v>6539</v>
+        <v>3231</v>
       </c>
       <c r="F2">
-        <v>4798</v>
+        <v>3161</v>
       </c>
       <c r="G2">
-        <v>16221</v>
+        <v>7152</v>
       </c>
       <c r="H2">
-        <v>95289</v>
+        <v>52071</v>
       </c>
       <c r="I2">
-        <v>5409</v>
+        <v>1971</v>
       </c>
       <c r="J2">
-        <v>26859</v>
+        <v>24102</v>
       </c>
       <c r="K2">
-        <v>750</v>
+        <v>1011</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15893</v>
+        <v>7590</v>
       </c>
       <c r="O2">
-        <v>59347</v>
+        <v>38023</v>
       </c>
       <c r="P2">
-        <v>28758</v>
+        <v>25826</v>
       </c>
       <c r="Q2">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>127000</v>
+        <v>117000</v>
       </c>
       <c r="T2">
-        <v>35942</v>
+        <v>14048</v>
       </c>
       <c r="U2">
-        <v>2481</v>
+        <v>191</v>
       </c>
       <c r="V2">
-        <v>2524</v>
+        <v>1132</v>
       </c>
       <c r="W2">
-        <v>-511</v>
+        <v>-9</v>
       </c>
       <c r="X2">
-        <v>-1700</v>
+        <v>14427</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>540</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>799</v>
+        <v>326</v>
       </c>
       <c r="D3">
-        <v>12573</v>
+        <v>7197</v>
       </c>
       <c r="E3">
-        <v>7131</v>
+        <v>3289</v>
       </c>
       <c r="F3">
-        <v>4636</v>
+        <v>2922</v>
       </c>
       <c r="G3">
-        <v>17529</v>
+        <v>7432</v>
       </c>
       <c r="H3">
-        <v>98269</v>
+        <v>52053</v>
       </c>
       <c r="I3">
-        <v>5535</v>
+        <v>1560</v>
       </c>
       <c r="J3">
-        <v>24288</v>
+        <v>24111</v>
       </c>
       <c r="K3">
-        <v>1812</v>
+        <v>1819</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-3</v>
+        <v>-430</v>
       </c>
       <c r="N3">
-        <v>19779</v>
+        <v>7433</v>
       </c>
       <c r="O3">
-        <v>60770</v>
+        <v>37732</v>
       </c>
       <c r="P3">
-        <v>30061</v>
+        <v>26220</v>
       </c>
       <c r="Q3">
-        <v>-393</v>
+        <v>-28</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>37499</v>
+        <v>14321</v>
       </c>
       <c r="U3">
-        <v>2088</v>
+        <v>163</v>
       </c>
       <c r="V3">
-        <v>-986</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>-507</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>795</v>
+        <v>164</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>799</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>976</v>
+        <v>505</v>
       </c>
       <c r="D4">
-        <v>13878</v>
+        <v>7473</v>
       </c>
       <c r="E4">
-        <v>6830</v>
+        <v>3212</v>
       </c>
       <c r="F4">
-        <v>4871</v>
+        <v>3071</v>
       </c>
       <c r="G4">
-        <v>17496</v>
+        <v>7387</v>
       </c>
       <c r="H4">
-        <v>99027</v>
+        <v>51758</v>
       </c>
       <c r="I4">
-        <v>5308</v>
+        <v>1567</v>
       </c>
       <c r="J4">
-        <v>23420</v>
+        <v>14236</v>
       </c>
       <c r="K4">
-        <v>1242</v>
+        <v>2758</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20280</v>
+        <v>8120</v>
       </c>
       <c r="O4">
-        <v>59916</v>
+        <v>28750</v>
       </c>
       <c r="P4">
-        <v>29654</v>
+        <v>17152</v>
       </c>
       <c r="Q4">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>39111</v>
+        <v>23008</v>
       </c>
       <c r="U4">
-        <v>2267</v>
+        <v>187</v>
       </c>
       <c r="V4">
-        <v>1282</v>
+        <v>626</v>
       </c>
       <c r="W4">
-        <v>-510</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-755</v>
+        <v>-277</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>976</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>922</v>
+        <v>503</v>
       </c>
       <c r="D5">
-        <v>13226</v>
+        <v>7018</v>
       </c>
       <c r="E5">
-        <v>6835</v>
+        <v>3121</v>
       </c>
       <c r="F5">
-        <v>4615</v>
+        <v>2785</v>
       </c>
       <c r="G5">
-        <v>17329</v>
+        <v>7348</v>
       </c>
       <c r="H5">
-        <v>95832</v>
+        <v>51823</v>
       </c>
       <c r="I5">
-        <v>5293</v>
+        <v>1558</v>
       </c>
       <c r="J5">
-        <v>23139</v>
+        <v>13654</v>
       </c>
       <c r="K5">
-        <v>896</v>
+        <v>3031</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20360</v>
+        <v>8419</v>
       </c>
       <c r="O5">
-        <v>59132</v>
+        <v>28516</v>
       </c>
       <c r="P5">
-        <v>29565</v>
+        <v>16731</v>
       </c>
       <c r="Q5">
-        <v>-291</v>
+        <v>-12</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>36700</v>
+        <v>23307</v>
       </c>
       <c r="U5">
-        <v>1976</v>
+        <v>175</v>
       </c>
       <c r="V5">
-        <v>1369</v>
+        <v>784</v>
       </c>
       <c r="W5">
-        <v>-518</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-883</v>
+        <v>-587</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>922</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>7546</v>
       </c>
       <c r="E6">
-        <v>6361</v>
+        <v>3131</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2890</v>
       </c>
       <c r="G6">
-        <v>16202</v>
+        <v>7006</v>
       </c>
       <c r="H6">
-        <v>93837</v>
+        <v>55798</v>
       </c>
       <c r="I6">
-        <v>5525</v>
+        <v>1897</v>
       </c>
       <c r="J6">
-        <v>23095</v>
+        <v>13134</v>
       </c>
       <c r="K6">
-        <v>182</v>
+        <v>2333</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18445</v>
+        <v>8875</v>
       </c>
       <c r="O6">
-        <v>58509</v>
+        <v>32320</v>
       </c>
       <c r="P6">
-        <v>27501</v>
+        <v>16007</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>126000</v>
+        <v>114000</v>
       </c>
       <c r="T6">
-        <v>35328</v>
+        <v>23478</v>
       </c>
       <c r="U6">
-        <v>1974</v>
+        <v>162</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1916</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-225</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>-1431</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>813</v>
+        <v>693</v>
       </c>
       <c r="D7">
-        <v>8667</v>
+        <v>7147</v>
       </c>
       <c r="E7">
-        <v>7314</v>
+        <v>3195</v>
       </c>
       <c r="F7">
-        <v>3195</v>
+        <v>2864</v>
       </c>
       <c r="G7">
-        <v>17693</v>
+        <v>7311</v>
       </c>
       <c r="H7">
-        <v>96647</v>
+        <v>55837</v>
       </c>
       <c r="I7">
-        <v>5545</v>
+        <v>1665</v>
       </c>
       <c r="J7">
-        <v>23198</v>
+        <v>11804</v>
       </c>
       <c r="K7">
-        <v>3320</v>
+        <v>3410</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-2639</v>
+        <v>-1128</v>
       </c>
       <c r="N7">
-        <v>19298</v>
+        <v>9738</v>
       </c>
       <c r="O7">
-        <v>59556</v>
+        <v>31960</v>
       </c>
       <c r="P7">
-        <v>28679</v>
+        <v>15972</v>
       </c>
       <c r="Q7">
-        <v>-122</v>
+        <v>-10</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>37091</v>
+        <v>23877</v>
       </c>
       <c r="U7">
-        <v>1852</v>
+        <v>152</v>
       </c>
       <c r="V7">
-        <v>-851</v>
+        <v>216</v>
       </c>
       <c r="W7">
-        <v>-514</v>
+        <v>-225</v>
       </c>
       <c r="X7">
-        <v>917</v>
+        <v>-54</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>813</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>1029</v>
+        <v>901</v>
       </c>
       <c r="D8">
-        <v>8527</v>
+        <v>7513</v>
       </c>
       <c r="E8">
-        <v>6642</v>
+        <v>3266</v>
       </c>
       <c r="F8">
-        <v>3211</v>
+        <v>3127</v>
       </c>
       <c r="G8">
-        <v>19831</v>
+        <v>7410</v>
       </c>
       <c r="H8">
-        <v>97114</v>
+        <v>56549</v>
       </c>
       <c r="I8">
-        <v>5161</v>
+        <v>1699</v>
       </c>
       <c r="J8">
-        <v>28081</v>
+        <v>12548</v>
       </c>
       <c r="K8">
-        <v>245</v>
+        <v>2696</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16054</v>
+        <v>8629</v>
       </c>
       <c r="O8">
-        <v>60866</v>
+        <v>31710</v>
       </c>
       <c r="P8">
-        <v>30742</v>
+        <v>15598</v>
       </c>
       <c r="Q8">
-        <v>2791</v>
+        <v>-12</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>36248</v>
+        <v>24839</v>
       </c>
       <c r="U8">
-        <v>4643</v>
+        <v>140</v>
       </c>
       <c r="V8">
-        <v>2059</v>
+        <v>929</v>
       </c>
       <c r="W8">
-        <v>-511</v>
+        <v>-226</v>
       </c>
       <c r="X8">
-        <v>1209</v>
+        <v>-709</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>1029</v>
+        <v>901</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>652</v>
+        <v>869</v>
       </c>
       <c r="D9">
-        <v>8326</v>
+        <v>7216</v>
       </c>
       <c r="E9">
-        <v>7110</v>
+        <v>3138</v>
       </c>
       <c r="F9">
-        <v>3120</v>
+        <v>2971</v>
       </c>
       <c r="G9">
-        <v>19517</v>
+        <v>7431</v>
       </c>
       <c r="H9">
-        <v>97779</v>
+        <v>56762</v>
       </c>
       <c r="I9">
-        <v>5499</v>
+        <v>1709</v>
       </c>
       <c r="J9">
-        <v>27323</v>
+        <v>12871</v>
       </c>
       <c r="K9">
-        <v>263</v>
+        <v>1983</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15845</v>
+        <v>8047</v>
       </c>
       <c r="O9">
-        <v>61101</v>
+        <v>31433</v>
       </c>
       <c r="P9">
-        <v>30001</v>
+        <v>15213</v>
       </c>
       <c r="Q9">
-        <v>-770</v>
+        <v>-13</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>36678</v>
+        <v>25329</v>
       </c>
       <c r="U9">
-        <v>3873</v>
+        <v>127</v>
       </c>
       <c r="V9">
-        <v>967</v>
+        <v>1081</v>
       </c>
       <c r="W9">
-        <v>-517</v>
+        <v>-225</v>
       </c>
       <c r="X9">
-        <v>-1298</v>
+        <v>-728</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>652</v>
+        <v>869</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>7847</v>
       </c>
       <c r="E10">
-        <v>6129</v>
+        <v>3116</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3041</v>
       </c>
       <c r="G10">
-        <v>15673</v>
+        <v>7456</v>
       </c>
       <c r="H10">
-        <v>75477</v>
+        <v>57100</v>
       </c>
       <c r="I10">
-        <v>4642</v>
+        <v>1939</v>
       </c>
       <c r="J10">
-        <v>15574</v>
+        <v>12976</v>
       </c>
       <c r="K10">
-        <v>274</v>
+        <v>1115</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14870</v>
+        <v>7169</v>
       </c>
       <c r="O10">
-        <v>43061</v>
+        <v>31268</v>
       </c>
       <c r="P10">
-        <v>19486</v>
+        <v>14443</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>110000</v>
+        <v>109000</v>
       </c>
       <c r="T10">
-        <v>32416</v>
+        <v>25832</v>
       </c>
       <c r="U10">
-        <v>4475</v>
+        <v>215</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1494</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-260</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-1125</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>931</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>536</v>
+        <v>848</v>
       </c>
       <c r="D11">
-        <v>8744</v>
+        <v>7359</v>
       </c>
       <c r="E11">
-        <v>6265</v>
+        <v>3313</v>
       </c>
       <c r="F11">
-        <v>3242</v>
+        <v>3010</v>
       </c>
       <c r="G11">
-        <v>14295</v>
+        <v>7943</v>
       </c>
       <c r="H11">
-        <v>73298</v>
+        <v>57943</v>
       </c>
       <c r="I11">
-        <v>4378</v>
+        <v>1661</v>
       </c>
       <c r="J11">
-        <v>14970</v>
+        <v>12513</v>
       </c>
       <c r="K11">
-        <v>203</v>
+        <v>2167</v>
       </c>
       <c r="L11">
-        <v>-66</v>
+        <v>-1150</v>
       </c>
       <c r="M11">
-        <v>-752</v>
+        <v>-322</v>
       </c>
       <c r="N11">
-        <v>13847</v>
+        <v>7830</v>
       </c>
       <c r="O11">
-        <v>41280</v>
+        <v>31467</v>
       </c>
       <c r="P11">
-        <v>18555</v>
+        <v>14732</v>
       </c>
       <c r="Q11">
-        <v>-1716</v>
+        <v>-48</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>32018</v>
+        <v>26476</v>
       </c>
       <c r="U11">
-        <v>2759</v>
+        <v>167</v>
       </c>
       <c r="V11">
-        <v>-385</v>
+        <v>315</v>
       </c>
       <c r="W11">
-        <v>-232</v>
+        <v>-259</v>
       </c>
       <c r="X11">
-        <v>-993</v>
+        <v>-140</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>536</v>
+        <v>848</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>601</v>
+        <v>949</v>
       </c>
       <c r="D12">
-        <v>8595</v>
+        <v>7841</v>
       </c>
       <c r="E12">
-        <v>5989</v>
+        <v>3315</v>
       </c>
       <c r="F12">
-        <v>3231</v>
+        <v>3146</v>
       </c>
       <c r="G12">
-        <v>13738</v>
+        <v>9206</v>
       </c>
       <c r="H12">
-        <v>71823</v>
+        <v>59881</v>
       </c>
       <c r="I12">
-        <v>4316</v>
+        <v>1608</v>
       </c>
       <c r="J12">
-        <v>14986</v>
+        <v>10940</v>
       </c>
       <c r="K12">
-        <v>756</v>
+        <v>4445</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13133</v>
+        <v>10157</v>
       </c>
       <c r="O12">
-        <v>40274</v>
+        <v>32324</v>
       </c>
       <c r="P12">
-        <v>18106</v>
+        <v>15511</v>
       </c>
       <c r="Q12">
-        <v>-283</v>
+        <v>1339</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>31549</v>
+        <v>27557</v>
       </c>
       <c r="U12">
-        <v>2476</v>
+        <v>1506</v>
       </c>
       <c r="V12">
-        <v>803</v>
+        <v>1264</v>
       </c>
       <c r="W12">
-        <v>-232</v>
+        <v>-261</v>
       </c>
       <c r="X12">
-        <v>-735</v>
+        <v>408</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>601</v>
+        <v>949</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>1012</v>
+        <v>810</v>
       </c>
       <c r="D13">
-        <v>8472</v>
+        <v>7480</v>
       </c>
       <c r="E13">
-        <v>6245</v>
+        <v>3080</v>
       </c>
       <c r="F13">
-        <v>3144</v>
+        <v>2921</v>
       </c>
       <c r="G13">
-        <v>15463</v>
+        <v>7920</v>
       </c>
       <c r="H13">
-        <v>74859</v>
+        <v>58226</v>
       </c>
       <c r="I13">
-        <v>4533</v>
+        <v>1697</v>
       </c>
       <c r="J13">
-        <v>15089</v>
+        <v>11639</v>
       </c>
       <c r="K13">
-        <v>2527</v>
+        <v>2131</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15269</v>
+        <v>7709</v>
       </c>
       <c r="O13">
-        <v>42367</v>
+        <v>30483</v>
       </c>
       <c r="P13">
-        <v>19960</v>
+        <v>13794</v>
       </c>
       <c r="Q13">
-        <v>1216</v>
+        <v>-1010</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>32492</v>
+        <v>27743</v>
       </c>
       <c r="U13">
-        <v>3692</v>
+        <v>496</v>
       </c>
       <c r="V13">
-        <v>780</v>
+        <v>1241</v>
       </c>
       <c r="W13">
-        <v>-232</v>
+        <v>-258</v>
       </c>
       <c r="X13">
-        <v>847</v>
+        <v>-2008</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,12 +1844,12 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>1012</v>
+        <v>810</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -1741,25 +1861,25 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4463</v>
+        <v>3369</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>13174</v>
+        <v>8124</v>
       </c>
       <c r="H14">
-        <v>72515</v>
+        <v>59285</v>
       </c>
       <c r="I14">
-        <v>5345</v>
+        <v>2005</v>
       </c>
       <c r="J14">
-        <v>14482</v>
+        <v>11591</v>
       </c>
       <c r="K14">
-        <v>1594</v>
+        <v>1096</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,28 +1888,28 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14354</v>
+        <v>7861</v>
       </c>
       <c r="O14">
-        <v>39983</v>
+        <v>30755</v>
       </c>
       <c r="P14">
-        <v>17117</v>
+        <v>13462</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>107000</v>
+        <v>106000</v>
       </c>
       <c r="T14">
-        <v>32532</v>
+        <v>28530</v>
       </c>
       <c r="U14">
-        <v>2622</v>
+        <v>514</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1812,76 +1932,76 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>163</v>
+        <v>560</v>
       </c>
       <c r="D15">
-        <v>8641</v>
+        <v>7575</v>
       </c>
       <c r="E15">
-        <v>5900</v>
+        <v>3455</v>
       </c>
       <c r="F15">
-        <v>3204</v>
+        <v>2899</v>
       </c>
       <c r="G15">
-        <v>13702</v>
+        <v>8221</v>
       </c>
       <c r="H15">
-        <v>72960</v>
+        <v>59289</v>
       </c>
       <c r="I15">
-        <v>5372</v>
+        <v>1793</v>
       </c>
       <c r="J15">
-        <v>14772</v>
+        <v>11696</v>
       </c>
       <c r="K15">
-        <v>2503</v>
+        <v>1037</v>
       </c>
       <c r="L15">
-        <v>-791</v>
+        <v>-182</v>
       </c>
       <c r="M15">
-        <v>-2514</v>
+        <v>-11</v>
       </c>
       <c r="N15">
-        <v>15325</v>
+        <v>7615</v>
       </c>
       <c r="O15">
-        <v>41184</v>
+        <v>30482</v>
       </c>
       <c r="P15">
-        <v>18985</v>
+        <v>13509</v>
       </c>
       <c r="Q15">
-        <v>-291</v>
+        <v>-227</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>31776</v>
+        <v>28807</v>
       </c>
       <c r="U15">
-        <v>2422</v>
+        <v>287</v>
       </c>
       <c r="V15">
-        <v>-577</v>
+        <v>494</v>
       </c>
       <c r="W15">
-        <v>-238</v>
+        <v>-309</v>
       </c>
       <c r="X15">
-        <v>630</v>
+        <v>-471</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>163</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="D16">
-        <v>8436</v>
+        <v>8091</v>
       </c>
       <c r="E16">
-        <v>5533</v>
+        <v>3365</v>
       </c>
       <c r="F16">
-        <v>3105</v>
+        <v>2993</v>
       </c>
       <c r="G16">
-        <v>13100</v>
+        <v>8060</v>
       </c>
       <c r="H16">
-        <v>72680</v>
+        <v>59123</v>
       </c>
       <c r="I16">
-        <v>5303</v>
+        <v>1856</v>
       </c>
       <c r="J16">
-        <v>14255</v>
+        <v>10972</v>
       </c>
       <c r="K16">
-        <v>2044</v>
+        <v>788</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14915</v>
+        <v>8008</v>
       </c>
       <c r="O16">
-        <v>40273</v>
+        <v>30246</v>
       </c>
       <c r="P16">
-        <v>18576</v>
+        <v>13258</v>
       </c>
       <c r="Q16">
-        <v>-251</v>
+        <v>-123</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>32407</v>
+        <v>28877</v>
       </c>
       <c r="U16">
-        <v>2132</v>
+        <v>164</v>
       </c>
       <c r="V16">
-        <v>945</v>
+        <v>838</v>
       </c>
       <c r="W16">
-        <v>-238</v>
+        <v>-311</v>
       </c>
       <c r="X16">
-        <v>-803</v>
+        <v>-758</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>622</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>899</v>
+        <v>779</v>
       </c>
       <c r="D17">
-        <v>8337</v>
+        <v>7718</v>
       </c>
       <c r="E17">
-        <v>5352</v>
+        <v>3248</v>
       </c>
       <c r="F17">
-        <v>3142</v>
+        <v>2863</v>
       </c>
       <c r="G17">
-        <v>12846</v>
+        <v>8131</v>
       </c>
       <c r="H17">
-        <v>69967</v>
+        <v>59290</v>
       </c>
       <c r="I17">
-        <v>5184</v>
+        <v>1901</v>
       </c>
       <c r="J17">
-        <v>13988</v>
+        <v>10972</v>
       </c>
       <c r="K17">
-        <v>1807</v>
+        <v>380</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14615</v>
+        <v>7853</v>
       </c>
       <c r="O17">
-        <v>39011</v>
+        <v>30070</v>
       </c>
       <c r="P17">
-        <v>17911</v>
+        <v>12852</v>
       </c>
       <c r="Q17">
-        <v>-461</v>
+        <v>38</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>30956</v>
+        <v>29220</v>
       </c>
       <c r="U17">
-        <v>1704</v>
+        <v>202</v>
       </c>
       <c r="V17">
-        <v>781</v>
+        <v>1156</v>
       </c>
       <c r="W17">
-        <v>-237</v>
+        <v>-309</v>
       </c>
       <c r="X17">
-        <v>-739</v>
+        <v>-908</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>899</v>
+        <v>779</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>8830</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>3802</v>
+        <v>3541</v>
       </c>
       <c r="F18">
-        <v>3146</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>11750</v>
+        <v>9722</v>
       </c>
       <c r="H18">
-        <v>66771</v>
+        <v>59928</v>
       </c>
       <c r="I18">
-        <v>5299</v>
+        <v>2207</v>
       </c>
       <c r="J18">
-        <v>13821</v>
+        <v>9723</v>
       </c>
       <c r="K18">
-        <v>1305</v>
+        <v>2045</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14007</v>
+        <v>9078</v>
       </c>
       <c r="O18">
-        <v>38918</v>
+        <v>30017</v>
       </c>
       <c r="P18">
-        <v>16737</v>
+        <v>12518</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>104000</v>
+        <v>98000</v>
       </c>
       <c r="T18">
-        <v>27853</v>
+        <v>29911</v>
       </c>
       <c r="U18">
-        <v>1631</v>
+        <v>282</v>
       </c>
       <c r="V18">
-        <v>2413</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>-251</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-1776</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2259,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>324</v>
+        <v>713</v>
       </c>
       <c r="D19">
-        <v>7762</v>
+        <v>8059</v>
       </c>
       <c r="E19">
-        <v>4061</v>
+        <v>3635</v>
       </c>
       <c r="F19">
-        <v>2941</v>
+        <v>2970</v>
       </c>
       <c r="G19">
-        <v>11864</v>
+        <v>10125</v>
       </c>
       <c r="H19">
-        <v>64206</v>
+        <v>60140</v>
       </c>
       <c r="I19">
-        <v>5199</v>
+        <v>1964</v>
       </c>
       <c r="J19">
-        <v>12822</v>
+        <v>9724</v>
       </c>
       <c r="K19">
-        <v>3688</v>
+        <v>2566</v>
       </c>
       <c r="L19">
-        <v>-96</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-4085</v>
+        <v>-321</v>
       </c>
       <c r="N19">
-        <v>16466</v>
+        <v>9181</v>
       </c>
       <c r="O19">
-        <v>39594</v>
+        <v>30016</v>
       </c>
       <c r="P19">
-        <v>18811</v>
+        <v>12710</v>
       </c>
       <c r="Q19">
-        <v>204</v>
+        <v>-62</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>24612</v>
+        <v>30124</v>
       </c>
       <c r="U19">
-        <v>1835</v>
+        <v>220</v>
       </c>
       <c r="V19">
-        <v>-282</v>
+        <v>242</v>
       </c>
       <c r="W19">
-        <v>-249</v>
+        <v>-350</v>
       </c>
       <c r="X19">
-        <v>185</v>
+        <v>-366</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>324</v>
+        <v>713</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>7661</v>
+        <v>8334</v>
       </c>
       <c r="E20">
-        <v>3294</v>
+        <v>3461</v>
       </c>
       <c r="F20">
-        <v>3066</v>
+        <v>3070</v>
       </c>
       <c r="G20">
-        <v>11888</v>
+        <v>8524</v>
       </c>
       <c r="H20">
-        <v>65118</v>
+        <v>58207</v>
       </c>
       <c r="I20">
-        <v>4499</v>
+        <v>1995</v>
       </c>
       <c r="J20">
-        <v>13090</v>
+        <v>9723</v>
       </c>
       <c r="K20">
-        <v>4483</v>
+        <v>1369</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16788</v>
+        <v>7820</v>
       </c>
       <c r="O20">
-        <v>40384</v>
+        <v>28351</v>
       </c>
       <c r="P20">
-        <v>19378</v>
+        <v>11111</v>
       </c>
       <c r="Q20">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>24734</v>
+        <v>29856</v>
       </c>
       <c r="U20">
-        <v>1958</v>
+        <v>396</v>
       </c>
       <c r="V20">
-        <v>853</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>-239</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-482</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>406</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>7266</v>
+        <v>674</v>
       </c>
       <c r="D21">
-        <v>6849</v>
+        <v>8057</v>
       </c>
       <c r="E21">
-        <v>3352</v>
+        <v>3335</v>
       </c>
       <c r="F21">
-        <v>2670</v>
+        <v>2864</v>
       </c>
       <c r="G21">
-        <v>12174</v>
+        <v>8343</v>
       </c>
       <c r="H21">
-        <v>66390</v>
+        <v>58102</v>
       </c>
       <c r="I21">
-        <v>4875</v>
+        <v>2159</v>
       </c>
       <c r="J21">
-        <v>13029</v>
+        <v>9723</v>
       </c>
       <c r="K21">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13637</v>
+        <v>7937</v>
       </c>
       <c r="O21">
-        <v>36438</v>
+        <v>28327</v>
       </c>
       <c r="P21">
-        <v>16457</v>
+        <v>11307</v>
       </c>
       <c r="Q21">
-        <v>81</v>
+        <v>-161</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>29952</v>
+        <v>29775</v>
       </c>
       <c r="U21">
-        <v>2039</v>
+        <v>235</v>
       </c>
       <c r="V21">
-        <v>841</v>
+        <v>746</v>
       </c>
       <c r="W21">
-        <v>-248</v>
+        <v>-349</v>
       </c>
       <c r="X21">
-        <v>-3973</v>
+        <v>-584</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-219</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>7266</v>
+        <v>674</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-729</v>
+        <v>773</v>
       </c>
       <c r="D22">
-        <v>7364</v>
+        <v>9663</v>
       </c>
       <c r="E22">
-        <v>2634</v>
+        <v>3385</v>
       </c>
       <c r="F22">
-        <v>2835</v>
+        <v>3420</v>
       </c>
       <c r="G22">
-        <v>8958</v>
+        <v>8153</v>
       </c>
       <c r="H22">
-        <v>62843</v>
+        <v>57628</v>
       </c>
       <c r="I22">
-        <v>4890</v>
+        <v>2270</v>
       </c>
       <c r="J22">
-        <v>14557</v>
+        <v>8475</v>
       </c>
       <c r="K22">
-        <v>236</v>
+        <v>805</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,120 +2552,120 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10922</v>
+        <v>8724</v>
       </c>
       <c r="O22">
-        <v>34743</v>
+        <v>28035</v>
       </c>
       <c r="P22">
-        <v>15483</v>
+        <v>10548</v>
       </c>
       <c r="Q22">
-        <v>-169</v>
+        <v>81</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>99000</v>
+        <v>94000</v>
       </c>
       <c r="T22">
-        <v>28100</v>
+        <v>29593</v>
       </c>
       <c r="U22">
-        <v>1870</v>
+        <v>316</v>
       </c>
       <c r="V22">
-        <v>2316</v>
+        <v>1426</v>
       </c>
       <c r="W22">
-        <v>-272</v>
+        <v>-388</v>
       </c>
       <c r="X22">
-        <v>-1613</v>
+        <v>-973</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-544</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>-729</v>
+        <v>773</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>554</v>
+        <v>1006</v>
       </c>
       <c r="D23">
-        <v>6455</v>
+        <v>8123</v>
       </c>
       <c r="E23">
-        <v>3101</v>
+        <v>3431</v>
       </c>
       <c r="F23">
-        <v>2535</v>
+        <v>2938</v>
       </c>
       <c r="G23">
-        <v>9009</v>
+        <v>8318</v>
       </c>
       <c r="H23">
-        <v>63975</v>
+        <v>57814</v>
       </c>
       <c r="I23">
-        <v>4779</v>
+        <v>2020</v>
       </c>
       <c r="J23">
-        <v>13800</v>
+        <v>8476</v>
       </c>
       <c r="K23">
-        <v>2564</v>
+        <v>1102</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-1755</v>
+        <v>-14</v>
       </c>
       <c r="N23">
-        <v>13178</v>
+        <v>8701</v>
       </c>
       <c r="O23">
-        <v>36113</v>
+        <v>27837</v>
       </c>
       <c r="P23">
-        <v>17428</v>
+        <v>10847</v>
       </c>
       <c r="Q23">
-        <v>-532</v>
+        <v>-49</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>27862</v>
+        <v>29977</v>
       </c>
       <c r="U23">
-        <v>1338</v>
+        <v>267</v>
       </c>
       <c r="V23">
-        <v>-454</v>
+        <v>480</v>
       </c>
       <c r="W23">
-        <v>-269</v>
+        <v>-385</v>
       </c>
       <c r="X23">
-        <v>207</v>
+        <v>-443</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2674,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>554</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>464</v>
+        <v>682</v>
       </c>
       <c r="D24">
-        <v>6302</v>
+        <v>8619</v>
       </c>
       <c r="E24">
-        <v>2796</v>
+        <v>3549</v>
       </c>
       <c r="F24">
-        <v>2516</v>
+        <v>3189</v>
       </c>
       <c r="G24">
-        <v>8979</v>
+        <v>8374</v>
       </c>
       <c r="H24">
-        <v>63271</v>
+        <v>58222</v>
       </c>
       <c r="I24">
-        <v>4562</v>
+        <v>2084</v>
       </c>
       <c r="J24">
-        <v>13578</v>
+        <v>7478</v>
       </c>
       <c r="K24">
-        <v>2691</v>
+        <v>1105</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12996</v>
+        <v>9698</v>
       </c>
       <c r="O24">
-        <v>35595</v>
+        <v>27854</v>
       </c>
       <c r="P24">
-        <v>17314</v>
+        <v>10851</v>
       </c>
       <c r="Q24">
-        <v>417</v>
+        <v>135</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>27676</v>
+        <v>30368</v>
       </c>
       <c r="U24">
-        <v>1755</v>
+        <v>402</v>
       </c>
       <c r="V24">
-        <v>791</v>
+        <v>1126</v>
       </c>
       <c r="W24">
-        <v>-268</v>
+        <v>-384</v>
       </c>
       <c r="X24">
-        <v>-179</v>
+        <v>-806</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>464</v>
+        <v>682</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>548</v>
+        <v>748</v>
       </c>
       <c r="D25">
-        <v>6396</v>
+        <v>8243</v>
       </c>
       <c r="E25">
-        <v>3019</v>
+        <v>3573</v>
       </c>
       <c r="F25">
-        <v>2488</v>
+        <v>3002</v>
       </c>
       <c r="G25">
-        <v>8855</v>
+        <v>8959</v>
       </c>
       <c r="H25">
-        <v>63265</v>
+        <v>58840</v>
       </c>
       <c r="I25">
-        <v>4884</v>
+        <v>2376</v>
       </c>
       <c r="J25">
-        <v>13105</v>
+        <v>7081</v>
       </c>
       <c r="K25">
-        <v>2490</v>
+        <v>1046</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13957</v>
+        <v>10871</v>
       </c>
       <c r="O25">
-        <v>35688</v>
+        <v>28442</v>
       </c>
       <c r="P25">
-        <v>17142</v>
+        <v>10793</v>
       </c>
       <c r="Q25">
-        <v>-69</v>
+        <v>253</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>27577</v>
+        <v>30398</v>
       </c>
       <c r="U25">
-        <v>1686</v>
+        <v>655</v>
       </c>
       <c r="V25">
-        <v>801</v>
+        <v>1190</v>
       </c>
       <c r="W25">
-        <v>-264</v>
+        <v>-381</v>
       </c>
       <c r="X25">
-        <v>-858</v>
+        <v>-1307</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2840,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>548</v>
+        <v>748</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>93</v>
+        <v>624</v>
       </c>
       <c r="D26">
-        <v>6770</v>
+        <v>9371</v>
       </c>
       <c r="E26">
-        <v>2611</v>
+        <v>3869</v>
       </c>
       <c r="F26">
-        <v>2589</v>
+        <v>3312</v>
       </c>
       <c r="G26">
-        <v>8480</v>
+        <v>8254</v>
       </c>
       <c r="H26">
-        <v>61538</v>
+        <v>55574</v>
       </c>
       <c r="I26">
-        <v>5318</v>
+        <v>2602</v>
       </c>
       <c r="J26">
-        <v>13217</v>
+        <v>7081</v>
       </c>
       <c r="K26">
-        <v>2531</v>
+        <v>1715</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>14417</v>
+        <v>10473</v>
       </c>
       <c r="O26">
-        <v>36323</v>
+        <v>27019</v>
       </c>
       <c r="P26">
-        <v>17237</v>
+        <v>10214</v>
       </c>
       <c r="Q26">
-        <v>55</v>
+        <v>-416</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
         <v>90000</v>
       </c>
       <c r="T26">
-        <v>25215</v>
+        <v>28555</v>
       </c>
       <c r="U26">
-        <v>1741</v>
+        <v>239</v>
       </c>
       <c r="V26">
-        <v>1700</v>
+        <v>924</v>
       </c>
       <c r="W26">
-        <v>-293</v>
+        <v>-412</v>
       </c>
       <c r="X26">
-        <v>-1032</v>
+        <v>-1164</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2923,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>93</v>
+        <v>624</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="D27">
-        <v>6414</v>
+        <v>8586</v>
       </c>
       <c r="E27">
-        <v>3035</v>
+        <v>3977</v>
       </c>
       <c r="F27">
-        <v>2518</v>
+        <v>3056</v>
       </c>
       <c r="G27">
-        <v>8415</v>
+        <v>8852</v>
       </c>
       <c r="H27">
-        <v>62076</v>
+        <v>55814</v>
       </c>
       <c r="I27">
-        <v>4897</v>
+        <v>2574</v>
       </c>
       <c r="J27">
-        <v>12906</v>
+        <v>7081</v>
       </c>
       <c r="K27">
-        <v>4250</v>
+        <v>2046</v>
       </c>
       <c r="L27">
-        <v>-513</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-979</v>
+        <v>-16</v>
       </c>
       <c r="N27">
-        <v>15057</v>
+        <v>10427</v>
       </c>
       <c r="O27">
-        <v>36357</v>
+        <v>27085</v>
       </c>
       <c r="P27">
-        <v>18412</v>
+        <v>10542</v>
       </c>
       <c r="Q27">
-        <v>-434</v>
+        <v>12</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>25719</v>
+        <v>28729</v>
       </c>
       <c r="U27">
-        <v>1307</v>
+        <v>251</v>
       </c>
       <c r="V27">
-        <v>-557</v>
+        <v>161</v>
       </c>
       <c r="W27">
-        <v>-292</v>
+        <v>-409</v>
       </c>
       <c r="X27">
-        <v>378</v>
+        <v>-176</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>630</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>5986</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>2395</v>
+        <v>3957</v>
       </c>
       <c r="F28">
-        <v>2314</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>8193</v>
+        <v>9158</v>
       </c>
       <c r="H28">
-        <v>62757</v>
+        <v>56495</v>
       </c>
       <c r="I28">
-        <v>5012</v>
+        <v>2599</v>
       </c>
       <c r="J28">
-        <v>13226</v>
+        <v>7085</v>
       </c>
       <c r="K28">
-        <v>4813</v>
+        <v>5016</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>15563</v>
+        <v>12266</v>
       </c>
       <c r="O28">
-        <v>36965</v>
+        <v>29019</v>
       </c>
       <c r="P28">
-        <v>19042</v>
+        <v>12517</v>
       </c>
       <c r="Q28">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>25792</v>
+        <v>27476</v>
       </c>
       <c r="U28">
-        <v>1397</v>
+        <v>419</v>
       </c>
       <c r="V28">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>-289</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-754</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>1005</v>
+        <v>596</v>
       </c>
       <c r="D29">
-        <v>6530</v>
+        <v>8760</v>
       </c>
       <c r="E29">
-        <v>2981</v>
+        <v>3942</v>
       </c>
       <c r="F29">
-        <v>2549</v>
+        <v>2942</v>
       </c>
       <c r="G29">
-        <v>8155</v>
+        <v>9544</v>
       </c>
       <c r="H29">
-        <v>63291</v>
+        <v>57359</v>
       </c>
       <c r="I29">
-        <v>5139</v>
+        <v>2908</v>
       </c>
       <c r="J29">
-        <v>12918</v>
+        <v>10600</v>
       </c>
       <c r="K29">
-        <v>4551</v>
+        <v>2836</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>16035</v>
+        <v>10194</v>
       </c>
       <c r="O29">
-        <v>37192</v>
+        <v>30477</v>
       </c>
       <c r="P29">
-        <v>19064</v>
+        <v>13456</v>
       </c>
       <c r="Q29">
-        <v>-553</v>
+        <v>79</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>26099</v>
+        <v>26882</v>
       </c>
       <c r="U29">
-        <v>844</v>
+        <v>498</v>
       </c>
       <c r="V29">
-        <v>535</v>
+        <v>870</v>
       </c>
       <c r="W29">
-        <v>-288</v>
+        <v>-394</v>
       </c>
       <c r="X29">
-        <v>-1272</v>
+        <v>-453</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>981</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>6966</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>2691</v>
+        <v>5197</v>
       </c>
       <c r="F30">
-        <v>2653</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>7520</v>
+        <v>10737</v>
       </c>
       <c r="H30">
-        <v>62957</v>
+        <v>67993</v>
       </c>
       <c r="I30">
-        <v>5705</v>
+        <v>4065</v>
       </c>
       <c r="J30">
-        <v>12972</v>
+        <v>12902</v>
       </c>
       <c r="K30">
-        <v>3517</v>
+        <v>7385</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>15793</v>
+        <v>17086</v>
       </c>
       <c r="O30">
-        <v>36883</v>
+        <v>40698</v>
       </c>
       <c r="P30">
-        <v>18172</v>
+        <v>21009</v>
       </c>
       <c r="Q30">
-        <v>-83</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>83000</v>
+        <v>103000</v>
       </c>
       <c r="T30">
-        <v>26074</v>
+        <v>27295</v>
       </c>
       <c r="U30">
-        <v>761</v>
+        <v>567</v>
       </c>
       <c r="V30">
-        <v>1796</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>-329</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-1713</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,125 +3255,125 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1046</v>
+        <v>599</v>
       </c>
       <c r="D31">
-        <v>6765</v>
+        <v>10046</v>
       </c>
       <c r="E31">
-        <v>3113</v>
+        <v>5361</v>
       </c>
       <c r="F31">
-        <v>2849</v>
+        <v>3316</v>
       </c>
       <c r="G31">
-        <v>8370</v>
+        <v>11678</v>
       </c>
       <c r="H31">
-        <v>64503</v>
+        <v>70026</v>
       </c>
       <c r="I31">
-        <v>5727</v>
+        <v>4157</v>
       </c>
       <c r="J31">
-        <v>13180</v>
+        <v>17375</v>
       </c>
       <c r="K31">
-        <v>4779</v>
+        <v>4528</v>
       </c>
       <c r="L31">
-        <v>-433</v>
+        <v>-3281</v>
       </c>
       <c r="M31">
-        <v>-738</v>
+        <v>-15</v>
       </c>
       <c r="N31">
-        <v>16798</v>
+        <v>14254</v>
       </c>
       <c r="O31">
-        <v>37953</v>
+        <v>42760</v>
       </c>
       <c r="P31">
-        <v>19479</v>
+        <v>22672</v>
       </c>
       <c r="Q31">
-        <v>369</v>
+        <v>38</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>26550</v>
+        <v>27266</v>
       </c>
       <c r="U31">
-        <v>1130</v>
+        <v>605</v>
       </c>
       <c r="V31">
-        <v>407</v>
+        <v>217</v>
       </c>
       <c r="W31">
-        <v>-327</v>
+        <v>-415</v>
       </c>
       <c r="X31">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>1046</v>
+        <v>599</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>318</v>
+        <v>745</v>
       </c>
       <c r="D32">
-        <v>6112</v>
+        <v>10804</v>
       </c>
       <c r="E32">
-        <v>2416</v>
+        <v>5223</v>
       </c>
       <c r="F32">
-        <v>2540</v>
+        <v>3868</v>
       </c>
       <c r="G32">
-        <v>8202</v>
+        <v>11674</v>
       </c>
       <c r="H32">
-        <v>62974</v>
+        <v>70845</v>
       </c>
       <c r="I32">
-        <v>5248</v>
+        <v>3541</v>
       </c>
       <c r="J32">
-        <v>14857</v>
+        <v>19348</v>
       </c>
       <c r="K32">
-        <v>4074</v>
+        <v>2217</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>14832</v>
+        <v>11830</v>
       </c>
       <c r="O32">
-        <v>37687</v>
+        <v>42895</v>
       </c>
       <c r="P32">
-        <v>20119</v>
+        <v>22290</v>
       </c>
       <c r="Q32">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>25287</v>
+        <v>27950</v>
       </c>
       <c r="U32">
-        <v>1246</v>
+        <v>708</v>
       </c>
       <c r="V32">
-        <v>775</v>
+        <v>1132</v>
       </c>
       <c r="W32">
-        <v>-330</v>
+        <v>-411</v>
       </c>
       <c r="X32">
-        <v>160</v>
+        <v>-724</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>318</v>
+        <v>745</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1194</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>6288</v>
+        <v>10401</v>
       </c>
       <c r="E33">
-        <v>2732</v>
+        <v>4709</v>
       </c>
       <c r="F33">
-        <v>2414</v>
+        <v>3305</v>
       </c>
       <c r="G33">
-        <v>8722</v>
+        <v>11257</v>
       </c>
       <c r="H33">
-        <v>63918</v>
+        <v>66945</v>
       </c>
       <c r="I33">
-        <v>5374</v>
+        <v>3439</v>
       </c>
       <c r="J33">
-        <v>14852</v>
+        <v>18874</v>
       </c>
       <c r="K33">
-        <v>4811</v>
+        <v>1000</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>15508</v>
+        <v>10295</v>
       </c>
       <c r="O33">
-        <v>38386</v>
+        <v>40544</v>
       </c>
       <c r="P33">
-        <v>20423</v>
+        <v>20593</v>
       </c>
       <c r="Q33">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>25532</v>
+        <v>26401</v>
       </c>
       <c r="U33">
-        <v>1373</v>
+        <v>737</v>
       </c>
       <c r="V33">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>-323</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-396</v>
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>1194</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>823</v>
+        <v>178</v>
       </c>
       <c r="D34">
-        <v>6773</v>
+        <v>10681</v>
       </c>
       <c r="E34">
-        <v>2262</v>
+        <v>4704</v>
       </c>
       <c r="F34">
-        <v>2549</v>
+        <v>3408</v>
       </c>
       <c r="G34">
-        <v>7604</v>
+        <v>11461</v>
       </c>
       <c r="H34">
-        <v>62729</v>
+        <v>63173</v>
       </c>
       <c r="I34">
-        <v>5794</v>
+        <v>3373</v>
       </c>
       <c r="J34">
-        <v>12532</v>
+        <v>18589</v>
       </c>
       <c r="K34">
-        <v>3192</v>
+        <v>897</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>16737</v>
+        <v>11044</v>
       </c>
       <c r="O34">
-        <v>37016</v>
+        <v>40817</v>
       </c>
       <c r="P34">
-        <v>18727</v>
+        <v>20251</v>
       </c>
       <c r="Q34">
-        <v>-273</v>
+        <v>507</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>80000</v>
+        <v>98000</v>
       </c>
       <c r="T34">
-        <v>25713</v>
+        <v>22356</v>
       </c>
       <c r="U34">
-        <v>1100</v>
+        <v>1244</v>
       </c>
       <c r="V34">
-        <v>2063</v>
+        <v>1612</v>
       </c>
       <c r="W34">
-        <v>-379</v>
+        <v>-427</v>
       </c>
       <c r="X34">
-        <v>-2322</v>
+        <v>-654</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,126 +3587,126 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>823</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>914</v>
+        <v>660</v>
       </c>
       <c r="D35">
-        <v>6538</v>
+        <v>8979</v>
       </c>
       <c r="E35">
-        <v>2781</v>
+        <v>4472</v>
       </c>
       <c r="F35">
-        <v>2593</v>
+        <v>3100</v>
       </c>
       <c r="G35">
-        <v>8539</v>
+        <v>11141</v>
       </c>
       <c r="H35">
-        <v>64162</v>
+        <v>62353</v>
       </c>
       <c r="I35">
-        <v>5566</v>
+        <v>3207</v>
       </c>
       <c r="J35">
-        <v>12437</v>
+        <v>18385</v>
       </c>
       <c r="K35">
-        <v>4065</v>
+        <v>1022</v>
       </c>
       <c r="L35">
-        <v>-1549</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-403</v>
+        <v>-9</v>
       </c>
       <c r="N35">
-        <v>17721</v>
+        <v>10315</v>
       </c>
       <c r="O35">
-        <v>38253</v>
+        <v>39898</v>
       </c>
       <c r="P35">
-        <v>20431</v>
+        <v>20166</v>
       </c>
       <c r="Q35">
-        <v>442</v>
+        <v>-60</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>25909</v>
+        <v>22455</v>
       </c>
       <c r="U35">
-        <v>1542</v>
+        <v>1184</v>
       </c>
       <c r="V35">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="W35">
-        <v>-380</v>
+        <v>-426</v>
       </c>
       <c r="X35">
-        <v>201</v>
+        <v>-294</v>
       </c>
       <c r="Y35">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>967</v>
+        <v>660</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
+        <v>827</v>
+      </c>
+      <c r="D36">
+        <v>9781</v>
+      </c>
+      <c r="E36">
+        <v>4646</v>
+      </c>
+      <c r="F36">
+        <v>3512</v>
+      </c>
+      <c r="G36">
+        <v>11688</v>
+      </c>
+      <c r="H36">
+        <v>64654</v>
+      </c>
+      <c r="I36">
+        <v>3225</v>
+      </c>
+      <c r="J36">
+        <v>18610</v>
+      </c>
+      <c r="K36">
         <v>856</v>
       </c>
-      <c r="D36">
-        <v>6062</v>
-      </c>
-      <c r="E36">
-        <v>2179</v>
-      </c>
-      <c r="F36">
-        <v>2469</v>
-      </c>
-      <c r="G36">
-        <v>7836</v>
-      </c>
-      <c r="H36">
-        <v>63573</v>
-      </c>
-      <c r="I36">
-        <v>5312</v>
-      </c>
-      <c r="J36">
-        <v>11764</v>
-      </c>
-      <c r="K36">
-        <v>3780</v>
-      </c>
       <c r="L36">
         <v>0</v>
       </c>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>17798</v>
+        <v>10303</v>
       </c>
       <c r="O36">
-        <v>37399</v>
+        <v>40274</v>
       </c>
       <c r="P36">
-        <v>20377</v>
+        <v>20225</v>
       </c>
       <c r="Q36">
-        <v>-294</v>
+        <v>547</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>26174</v>
+        <v>24380</v>
       </c>
       <c r="U36">
-        <v>1248</v>
+        <v>1731</v>
       </c>
       <c r="V36">
-        <v>581</v>
+        <v>1297</v>
       </c>
       <c r="W36">
-        <v>-373</v>
+        <v>-429</v>
       </c>
       <c r="X36">
-        <v>-840</v>
+        <v>-603</v>
       </c>
       <c r="Y36">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>803</v>
+        <v>827</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1426</v>
+        <v>824</v>
       </c>
       <c r="D37">
-        <v>6355</v>
+        <v>9397</v>
       </c>
       <c r="E37">
-        <v>2492</v>
+        <v>4720</v>
       </c>
       <c r="F37">
-        <v>2516</v>
+        <v>3378</v>
       </c>
       <c r="G37">
-        <v>8630</v>
+        <v>13018</v>
       </c>
       <c r="H37">
-        <v>63895</v>
+        <v>66669</v>
       </c>
       <c r="I37">
-        <v>5322</v>
+        <v>3264</v>
       </c>
       <c r="J37">
-        <v>12593</v>
+        <v>18108</v>
       </c>
       <c r="K37">
-        <v>3253</v>
+        <v>1359</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>17120</v>
+        <v>12056</v>
       </c>
       <c r="O37">
-        <v>37021</v>
+        <v>41458</v>
       </c>
       <c r="P37">
-        <v>20357</v>
+        <v>20725</v>
       </c>
       <c r="Q37">
-        <v>289</v>
+        <v>1265</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>26874</v>
+        <v>25211</v>
       </c>
       <c r="U37">
-        <v>1537</v>
+        <v>2996</v>
       </c>
       <c r="V37">
-        <v>836</v>
+        <v>1549</v>
       </c>
       <c r="W37">
-        <v>-378</v>
+        <v>-429</v>
       </c>
       <c r="X37">
-        <v>-47</v>
+        <v>-64</v>
       </c>
       <c r="Y37">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>1426</v>
+        <v>824</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>733</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>6913</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>2212</v>
+        <v>5197</v>
       </c>
       <c r="F38">
-        <v>2759</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>7630</v>
+        <v>12454</v>
       </c>
       <c r="H38">
-        <v>64515</v>
+        <v>66714</v>
       </c>
       <c r="I38">
-        <v>5853</v>
+        <v>3766</v>
       </c>
       <c r="J38">
-        <v>14116</v>
+        <v>18024</v>
       </c>
       <c r="K38">
-        <v>2638</v>
+        <v>453</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>15322</v>
+        <v>11491</v>
       </c>
       <c r="O38">
-        <v>37198</v>
+        <v>40742</v>
       </c>
       <c r="P38">
-        <v>19197</v>
+        <v>18990</v>
       </c>
       <c r="Q38">
-        <v>-209</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>80000</v>
+        <v>97000</v>
       </c>
       <c r="T38">
-        <v>27317</v>
+        <v>25972</v>
       </c>
       <c r="U38">
-        <v>1291</v>
+        <v>2101</v>
       </c>
       <c r="V38">
-        <v>2083</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>-411</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-2101</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>753</v>
+        <v>1883</v>
       </c>
       <c r="D39">
-        <v>6707</v>
+        <v>11318</v>
       </c>
       <c r="E39">
-        <v>2628</v>
+        <v>6575</v>
       </c>
       <c r="F39">
-        <v>2451</v>
+        <v>4089</v>
       </c>
       <c r="G39">
-        <v>9068</v>
+        <v>17215</v>
       </c>
       <c r="H39">
-        <v>63598</v>
+        <v>95709</v>
       </c>
       <c r="I39">
-        <v>5554</v>
+        <v>5422</v>
       </c>
       <c r="J39">
-        <v>13354</v>
+        <v>29496</v>
       </c>
       <c r="K39">
-        <v>4764</v>
+        <v>891</v>
       </c>
       <c r="L39">
-        <v>-497</v>
+        <v>-708</v>
       </c>
       <c r="M39">
-        <v>-670</v>
+        <v>-6</v>
       </c>
       <c r="N39">
-        <v>17004</v>
+        <v>15581</v>
       </c>
       <c r="O39">
-        <v>37846</v>
+        <v>61215</v>
       </c>
       <c r="P39">
-        <v>20236</v>
+        <v>31036</v>
       </c>
       <c r="Q39">
-        <v>624</v>
+        <v>1777</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>25752</v>
+        <v>34494</v>
       </c>
       <c r="U39">
-        <v>1925</v>
+        <v>3878</v>
       </c>
       <c r="V39">
-        <v>284</v>
+        <v>-5</v>
       </c>
       <c r="W39">
-        <v>-408</v>
+        <v>-653</v>
       </c>
       <c r="X39">
-        <v>455</v>
+        <v>7993</v>
       </c>
       <c r="Y39">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>736</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>527</v>
+        <v>937</v>
       </c>
       <c r="D40">
-        <v>5911</v>
+        <v>12253</v>
       </c>
       <c r="E40">
-        <v>1979</v>
+        <v>5606</v>
       </c>
       <c r="F40">
-        <v>2331</v>
+        <v>4694</v>
       </c>
       <c r="G40">
-        <v>7995</v>
+        <v>15251</v>
       </c>
       <c r="H40">
-        <v>64194</v>
+        <v>91590</v>
       </c>
       <c r="I40">
-        <v>5466</v>
+        <v>4913</v>
       </c>
       <c r="J40">
-        <v>16004</v>
+        <v>29103</v>
       </c>
       <c r="K40">
-        <v>2755</v>
+        <v>291</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>14539</v>
+        <v>13769</v>
       </c>
       <c r="O40">
-        <v>38097</v>
+        <v>58231</v>
       </c>
       <c r="P40">
-        <v>20243</v>
+        <v>30159</v>
       </c>
       <c r="Q40">
-        <v>-321</v>
+        <v>-1024</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>26097</v>
+        <v>33359</v>
       </c>
       <c r="U40">
-        <v>1602</v>
+        <v>2854</v>
       </c>
       <c r="V40">
-        <v>1274</v>
+        <v>784</v>
       </c>
       <c r="W40">
-        <v>-410</v>
+        <v>-503</v>
       </c>
       <c r="X40">
-        <v>-636</v>
+        <v>-1000</v>
       </c>
       <c r="Y40">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-185</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>544</v>
+        <v>937</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>1119</v>
+        <v>754</v>
       </c>
       <c r="D41">
-        <v>6665</v>
+        <v>11863</v>
       </c>
       <c r="E41">
-        <v>2491</v>
+        <v>6013</v>
       </c>
       <c r="F41">
-        <v>2792</v>
+        <v>4321</v>
       </c>
       <c r="G41">
-        <v>9446</v>
+        <v>15824</v>
       </c>
       <c r="H41">
-        <v>66249</v>
+        <v>93620</v>
       </c>
       <c r="I41">
-        <v>5597</v>
+        <v>5130</v>
       </c>
       <c r="J41">
-        <v>18916</v>
+        <v>29571</v>
       </c>
       <c r="K41">
-        <v>199</v>
+        <v>331</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>12685</v>
+        <v>13626</v>
       </c>
       <c r="O41">
-        <v>39221</v>
+        <v>58638</v>
       </c>
       <c r="P41">
-        <v>20774</v>
+        <v>30362</v>
       </c>
       <c r="Q41">
-        <v>1159</v>
+        <v>-566</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>27028</v>
+        <v>34982</v>
       </c>
       <c r="U41">
-        <v>2759</v>
+        <v>2288</v>
       </c>
       <c r="V41">
-        <v>757</v>
+        <v>445</v>
       </c>
       <c r="W41">
-        <v>-409</v>
+        <v>-508</v>
       </c>
       <c r="X41">
-        <v>-314</v>
+        <v>-1105</v>
       </c>
       <c r="Y41">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>1357</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>1119</v>
+        <v>754</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>540</v>
+      </c>
+      <c r="D42">
+        <v>13773</v>
+      </c>
+      <c r="E42">
+        <v>6539</v>
+      </c>
+      <c r="F42">
+        <v>4798</v>
+      </c>
+      <c r="G42">
+        <v>16221</v>
+      </c>
+      <c r="H42">
+        <v>95289</v>
+      </c>
+      <c r="I42">
+        <v>5409</v>
+      </c>
+      <c r="J42">
+        <v>26859</v>
+      </c>
+      <c r="K42">
+        <v>750</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>15893</v>
+      </c>
+      <c r="O42">
+        <v>59347</v>
+      </c>
+      <c r="P42">
+        <v>28758</v>
+      </c>
+      <c r="Q42">
+        <v>193</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>127000</v>
+      </c>
+      <c r="T42">
+        <v>35942</v>
+      </c>
+      <c r="U42">
+        <v>2481</v>
+      </c>
+      <c r="V42">
+        <v>2524</v>
+      </c>
+      <c r="W42">
+        <v>-511</v>
+      </c>
+      <c r="X42">
+        <v>-1700</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>799</v>
+      </c>
+      <c r="D43">
+        <v>12573</v>
+      </c>
+      <c r="E43">
+        <v>7131</v>
+      </c>
+      <c r="F43">
+        <v>4636</v>
+      </c>
+      <c r="G43">
+        <v>17529</v>
+      </c>
+      <c r="H43">
+        <v>98269</v>
+      </c>
+      <c r="I43">
+        <v>5535</v>
+      </c>
+      <c r="J43">
+        <v>24288</v>
+      </c>
+      <c r="K43">
+        <v>1812</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-3</v>
+      </c>
+      <c r="N43">
+        <v>19779</v>
+      </c>
+      <c r="O43">
+        <v>60770</v>
+      </c>
+      <c r="P43">
+        <v>30061</v>
+      </c>
+      <c r="Q43">
+        <v>-393</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>37499</v>
+      </c>
+      <c r="U43">
+        <v>2088</v>
+      </c>
+      <c r="V43">
+        <v>-986</v>
+      </c>
+      <c r="W43">
+        <v>-507</v>
+      </c>
+      <c r="X43">
+        <v>795</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>976</v>
+      </c>
+      <c r="D44">
+        <v>13878</v>
+      </c>
+      <c r="E44">
+        <v>6830</v>
+      </c>
+      <c r="F44">
+        <v>4871</v>
+      </c>
+      <c r="G44">
+        <v>17496</v>
+      </c>
+      <c r="H44">
+        <v>99027</v>
+      </c>
+      <c r="I44">
+        <v>5308</v>
+      </c>
+      <c r="J44">
+        <v>23420</v>
+      </c>
+      <c r="K44">
+        <v>1242</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>20280</v>
+      </c>
+      <c r="O44">
+        <v>59916</v>
+      </c>
+      <c r="P44">
+        <v>29654</v>
+      </c>
+      <c r="Q44">
+        <v>179</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>39111</v>
+      </c>
+      <c r="U44">
+        <v>2267</v>
+      </c>
+      <c r="V44">
+        <v>1282</v>
+      </c>
+      <c r="W44">
+        <v>-510</v>
+      </c>
+      <c r="X44">
+        <v>-755</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>922</v>
+      </c>
+      <c r="D45">
+        <v>13226</v>
+      </c>
+      <c r="E45">
+        <v>6835</v>
+      </c>
+      <c r="F45">
+        <v>4615</v>
+      </c>
+      <c r="G45">
+        <v>17329</v>
+      </c>
+      <c r="H45">
+        <v>95832</v>
+      </c>
+      <c r="I45">
+        <v>5293</v>
+      </c>
+      <c r="J45">
+        <v>23139</v>
+      </c>
+      <c r="K45">
+        <v>896</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>20360</v>
+      </c>
+      <c r="O45">
+        <v>59132</v>
+      </c>
+      <c r="P45">
+        <v>29565</v>
+      </c>
+      <c r="Q45">
+        <v>-291</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>36700</v>
+      </c>
+      <c r="U45">
+        <v>1976</v>
+      </c>
+      <c r="V45">
+        <v>1369</v>
+      </c>
+      <c r="W45">
+        <v>-518</v>
+      </c>
+      <c r="X45">
+        <v>-883</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>6361</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>16202</v>
+      </c>
+      <c r="H46">
+        <v>93837</v>
+      </c>
+      <c r="I46">
+        <v>5525</v>
+      </c>
+      <c r="J46">
+        <v>23095</v>
+      </c>
+      <c r="K46">
+        <v>182</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>18445</v>
+      </c>
+      <c r="O46">
+        <v>58509</v>
+      </c>
+      <c r="P46">
+        <v>27501</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>126000</v>
+      </c>
+      <c r="T46">
+        <v>35328</v>
+      </c>
+      <c r="U46">
+        <v>1974</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>813</v>
+      </c>
+      <c r="D47">
+        <v>8667</v>
+      </c>
+      <c r="E47">
+        <v>7314</v>
+      </c>
+      <c r="F47">
+        <v>3195</v>
+      </c>
+      <c r="G47">
+        <v>17693</v>
+      </c>
+      <c r="H47">
+        <v>96647</v>
+      </c>
+      <c r="I47">
+        <v>5545</v>
+      </c>
+      <c r="J47">
+        <v>23198</v>
+      </c>
+      <c r="K47">
+        <v>3320</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-2639</v>
+      </c>
+      <c r="N47">
+        <v>19298</v>
+      </c>
+      <c r="O47">
+        <v>59556</v>
+      </c>
+      <c r="P47">
+        <v>28679</v>
+      </c>
+      <c r="Q47">
+        <v>-122</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>37091</v>
+      </c>
+      <c r="U47">
+        <v>1852</v>
+      </c>
+      <c r="V47">
+        <v>-851</v>
+      </c>
+      <c r="W47">
+        <v>-514</v>
+      </c>
+      <c r="X47">
+        <v>917</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>1029</v>
+      </c>
+      <c r="D48">
+        <v>8527</v>
+      </c>
+      <c r="E48">
+        <v>6642</v>
+      </c>
+      <c r="F48">
+        <v>3211</v>
+      </c>
+      <c r="G48">
+        <v>19831</v>
+      </c>
+      <c r="H48">
+        <v>97114</v>
+      </c>
+      <c r="I48">
+        <v>5161</v>
+      </c>
+      <c r="J48">
+        <v>28081</v>
+      </c>
+      <c r="K48">
+        <v>245</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>16054</v>
+      </c>
+      <c r="O48">
+        <v>60866</v>
+      </c>
+      <c r="P48">
+        <v>30742</v>
+      </c>
+      <c r="Q48">
+        <v>2791</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>36248</v>
+      </c>
+      <c r="U48">
+        <v>4643</v>
+      </c>
+      <c r="V48">
+        <v>2059</v>
+      </c>
+      <c r="W48">
+        <v>-511</v>
+      </c>
+      <c r="X48">
+        <v>1209</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>652</v>
+      </c>
+      <c r="D49">
+        <v>8326</v>
+      </c>
+      <c r="E49">
+        <v>7110</v>
+      </c>
+      <c r="F49">
+        <v>3120</v>
+      </c>
+      <c r="G49">
+        <v>19517</v>
+      </c>
+      <c r="H49">
+        <v>97779</v>
+      </c>
+      <c r="I49">
+        <v>5499</v>
+      </c>
+      <c r="J49">
+        <v>27323</v>
+      </c>
+      <c r="K49">
+        <v>263</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>15845</v>
+      </c>
+      <c r="O49">
+        <v>61101</v>
+      </c>
+      <c r="P49">
+        <v>30001</v>
+      </c>
+      <c r="Q49">
+        <v>-770</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>36678</v>
+      </c>
+      <c r="U49">
+        <v>3873</v>
+      </c>
+      <c r="V49">
+        <v>967</v>
+      </c>
+      <c r="W49">
+        <v>-517</v>
+      </c>
+      <c r="X49">
+        <v>-1298</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>6129</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>15673</v>
+      </c>
+      <c r="H50">
+        <v>75477</v>
+      </c>
+      <c r="I50">
+        <v>4642</v>
+      </c>
+      <c r="J50">
+        <v>15574</v>
+      </c>
+      <c r="K50">
+        <v>274</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>14870</v>
+      </c>
+      <c r="O50">
+        <v>43061</v>
+      </c>
+      <c r="P50">
+        <v>19486</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>110000</v>
+      </c>
+      <c r="T50">
+        <v>32416</v>
+      </c>
+      <c r="U50">
+        <v>4475</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>536</v>
+      </c>
+      <c r="D51">
+        <v>8744</v>
+      </c>
+      <c r="E51">
+        <v>6265</v>
+      </c>
+      <c r="F51">
+        <v>3242</v>
+      </c>
+      <c r="G51">
+        <v>14295</v>
+      </c>
+      <c r="H51">
+        <v>73298</v>
+      </c>
+      <c r="I51">
+        <v>4378</v>
+      </c>
+      <c r="J51">
+        <v>14970</v>
+      </c>
+      <c r="K51">
+        <v>203</v>
+      </c>
+      <c r="L51">
+        <v>-66</v>
+      </c>
+      <c r="M51">
+        <v>-752</v>
+      </c>
+      <c r="N51">
+        <v>13847</v>
+      </c>
+      <c r="O51">
+        <v>41280</v>
+      </c>
+      <c r="P51">
+        <v>18555</v>
+      </c>
+      <c r="Q51">
+        <v>-1716</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>32018</v>
+      </c>
+      <c r="U51">
+        <v>2759</v>
+      </c>
+      <c r="V51">
+        <v>-385</v>
+      </c>
+      <c r="W51">
+        <v>-232</v>
+      </c>
+      <c r="X51">
+        <v>-993</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>601</v>
+      </c>
+      <c r="D52">
+        <v>8595</v>
+      </c>
+      <c r="E52">
+        <v>5989</v>
+      </c>
+      <c r="F52">
+        <v>3231</v>
+      </c>
+      <c r="G52">
+        <v>13738</v>
+      </c>
+      <c r="H52">
+        <v>71823</v>
+      </c>
+      <c r="I52">
+        <v>4316</v>
+      </c>
+      <c r="J52">
+        <v>14986</v>
+      </c>
+      <c r="K52">
+        <v>756</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>13133</v>
+      </c>
+      <c r="O52">
+        <v>40274</v>
+      </c>
+      <c r="P52">
+        <v>18106</v>
+      </c>
+      <c r="Q52">
+        <v>-283</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>31549</v>
+      </c>
+      <c r="U52">
+        <v>2476</v>
+      </c>
+      <c r="V52">
+        <v>803</v>
+      </c>
+      <c r="W52">
+        <v>-232</v>
+      </c>
+      <c r="X52">
+        <v>-735</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>1012</v>
+      </c>
+      <c r="D53">
+        <v>8472</v>
+      </c>
+      <c r="E53">
+        <v>6245</v>
+      </c>
+      <c r="F53">
+        <v>3144</v>
+      </c>
+      <c r="G53">
+        <v>15463</v>
+      </c>
+      <c r="H53">
+        <v>74859</v>
+      </c>
+      <c r="I53">
+        <v>4533</v>
+      </c>
+      <c r="J53">
+        <v>15089</v>
+      </c>
+      <c r="K53">
+        <v>2527</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>15269</v>
+      </c>
+      <c r="O53">
+        <v>42367</v>
+      </c>
+      <c r="P53">
+        <v>19960</v>
+      </c>
+      <c r="Q53">
+        <v>1216</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>32492</v>
+      </c>
+      <c r="U53">
+        <v>3692</v>
+      </c>
+      <c r="V53">
+        <v>780</v>
+      </c>
+      <c r="W53">
+        <v>-232</v>
+      </c>
+      <c r="X53">
+        <v>847</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>4463</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>13174</v>
+      </c>
+      <c r="H54">
+        <v>72515</v>
+      </c>
+      <c r="I54">
+        <v>5345</v>
+      </c>
+      <c r="J54">
+        <v>14482</v>
+      </c>
+      <c r="K54">
+        <v>1594</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>14354</v>
+      </c>
+      <c r="O54">
+        <v>39983</v>
+      </c>
+      <c r="P54">
+        <v>17117</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>107000</v>
+      </c>
+      <c r="T54">
+        <v>32532</v>
+      </c>
+      <c r="U54">
+        <v>2622</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>163</v>
+      </c>
+      <c r="D55">
+        <v>8641</v>
+      </c>
+      <c r="E55">
+        <v>5900</v>
+      </c>
+      <c r="F55">
+        <v>3204</v>
+      </c>
+      <c r="G55">
+        <v>13702</v>
+      </c>
+      <c r="H55">
+        <v>72960</v>
+      </c>
+      <c r="I55">
+        <v>5372</v>
+      </c>
+      <c r="J55">
+        <v>14772</v>
+      </c>
+      <c r="K55">
+        <v>2503</v>
+      </c>
+      <c r="L55">
+        <v>-791</v>
+      </c>
+      <c r="M55">
+        <v>-2514</v>
+      </c>
+      <c r="N55">
+        <v>15325</v>
+      </c>
+      <c r="O55">
+        <v>41184</v>
+      </c>
+      <c r="P55">
+        <v>18985</v>
+      </c>
+      <c r="Q55">
+        <v>-291</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>31776</v>
+      </c>
+      <c r="U55">
+        <v>2422</v>
+      </c>
+      <c r="V55">
+        <v>-577</v>
+      </c>
+      <c r="W55">
+        <v>-238</v>
+      </c>
+      <c r="X55">
+        <v>630</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>622</v>
+      </c>
+      <c r="D56">
+        <v>8436</v>
+      </c>
+      <c r="E56">
+        <v>5533</v>
+      </c>
+      <c r="F56">
+        <v>3105</v>
+      </c>
+      <c r="G56">
+        <v>13100</v>
+      </c>
+      <c r="H56">
+        <v>72680</v>
+      </c>
+      <c r="I56">
+        <v>5303</v>
+      </c>
+      <c r="J56">
+        <v>14255</v>
+      </c>
+      <c r="K56">
+        <v>2044</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>14915</v>
+      </c>
+      <c r="O56">
+        <v>40273</v>
+      </c>
+      <c r="P56">
+        <v>18576</v>
+      </c>
+      <c r="Q56">
+        <v>-251</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>32407</v>
+      </c>
+      <c r="U56">
+        <v>2132</v>
+      </c>
+      <c r="V56">
+        <v>945</v>
+      </c>
+      <c r="W56">
+        <v>-238</v>
+      </c>
+      <c r="X56">
+        <v>-803</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>899</v>
+      </c>
+      <c r="D57">
+        <v>8337</v>
+      </c>
+      <c r="E57">
+        <v>5352</v>
+      </c>
+      <c r="F57">
+        <v>3142</v>
+      </c>
+      <c r="G57">
+        <v>12846</v>
+      </c>
+      <c r="H57">
+        <v>69967</v>
+      </c>
+      <c r="I57">
+        <v>5184</v>
+      </c>
+      <c r="J57">
+        <v>13988</v>
+      </c>
+      <c r="K57">
+        <v>1807</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>14615</v>
+      </c>
+      <c r="O57">
+        <v>39011</v>
+      </c>
+      <c r="P57">
+        <v>17911</v>
+      </c>
+      <c r="Q57">
+        <v>-461</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>30956</v>
+      </c>
+      <c r="U57">
+        <v>1704</v>
+      </c>
+      <c r="V57">
+        <v>781</v>
+      </c>
+      <c r="W57">
+        <v>-237</v>
+      </c>
+      <c r="X57">
+        <v>-739</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>500</v>
+      </c>
+      <c r="D58">
+        <v>8830</v>
+      </c>
+      <c r="E58">
+        <v>3802</v>
+      </c>
+      <c r="F58">
+        <v>3146</v>
+      </c>
+      <c r="G58">
+        <v>11750</v>
+      </c>
+      <c r="H58">
+        <v>66771</v>
+      </c>
+      <c r="I58">
+        <v>5299</v>
+      </c>
+      <c r="J58">
+        <v>13821</v>
+      </c>
+      <c r="K58">
+        <v>1305</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>14007</v>
+      </c>
+      <c r="O58">
+        <v>38918</v>
+      </c>
+      <c r="P58">
+        <v>16737</v>
+      </c>
+      <c r="Q58">
+        <v>12</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>104000</v>
+      </c>
+      <c r="T58">
+        <v>27853</v>
+      </c>
+      <c r="U58">
+        <v>1631</v>
+      </c>
+      <c r="V58">
+        <v>2413</v>
+      </c>
+      <c r="W58">
+        <v>-251</v>
+      </c>
+      <c r="X58">
+        <v>-1776</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>324</v>
+      </c>
+      <c r="D59">
+        <v>7762</v>
+      </c>
+      <c r="E59">
+        <v>4061</v>
+      </c>
+      <c r="F59">
+        <v>2941</v>
+      </c>
+      <c r="G59">
+        <v>11864</v>
+      </c>
+      <c r="H59">
+        <v>64206</v>
+      </c>
+      <c r="I59">
+        <v>5199</v>
+      </c>
+      <c r="J59">
+        <v>12822</v>
+      </c>
+      <c r="K59">
+        <v>3688</v>
+      </c>
+      <c r="L59">
+        <v>-96</v>
+      </c>
+      <c r="M59">
+        <v>-4085</v>
+      </c>
+      <c r="N59">
+        <v>16466</v>
+      </c>
+      <c r="O59">
+        <v>39594</v>
+      </c>
+      <c r="P59">
+        <v>18811</v>
+      </c>
+      <c r="Q59">
+        <v>204</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>24612</v>
+      </c>
+      <c r="U59">
+        <v>1835</v>
+      </c>
+      <c r="V59">
+        <v>-282</v>
+      </c>
+      <c r="W59">
+        <v>-249</v>
+      </c>
+      <c r="X59">
+        <v>185</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>406</v>
+      </c>
+      <c r="D60">
+        <v>7661</v>
+      </c>
+      <c r="E60">
+        <v>3294</v>
+      </c>
+      <c r="F60">
+        <v>3066</v>
+      </c>
+      <c r="G60">
+        <v>11888</v>
+      </c>
+      <c r="H60">
+        <v>65118</v>
+      </c>
+      <c r="I60">
+        <v>4499</v>
+      </c>
+      <c r="J60">
+        <v>13090</v>
+      </c>
+      <c r="K60">
+        <v>4483</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>16788</v>
+      </c>
+      <c r="O60">
+        <v>40384</v>
+      </c>
+      <c r="P60">
+        <v>19378</v>
+      </c>
+      <c r="Q60">
+        <v>123</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>24734</v>
+      </c>
+      <c r="U60">
+        <v>1958</v>
+      </c>
+      <c r="V60">
+        <v>853</v>
+      </c>
+      <c r="W60">
+        <v>-239</v>
+      </c>
+      <c r="X60">
+        <v>-482</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>219</v>
+      </c>
+      <c r="AA60">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>7266</v>
+      </c>
+      <c r="D61">
+        <v>6849</v>
+      </c>
+      <c r="E61">
+        <v>3352</v>
+      </c>
+      <c r="F61">
+        <v>2670</v>
+      </c>
+      <c r="G61">
+        <v>12174</v>
+      </c>
+      <c r="H61">
+        <v>66390</v>
+      </c>
+      <c r="I61">
+        <v>4875</v>
+      </c>
+      <c r="J61">
+        <v>13029</v>
+      </c>
+      <c r="K61">
+        <v>1571</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>13637</v>
+      </c>
+      <c r="O61">
+        <v>36438</v>
+      </c>
+      <c r="P61">
+        <v>16457</v>
+      </c>
+      <c r="Q61">
+        <v>81</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>29952</v>
+      </c>
+      <c r="U61">
+        <v>2039</v>
+      </c>
+      <c r="V61">
+        <v>841</v>
+      </c>
+      <c r="W61">
+        <v>-248</v>
+      </c>
+      <c r="X61">
+        <v>-3973</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-219</v>
+      </c>
+      <c r="AA61">
+        <v>7266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-729</v>
+      </c>
+      <c r="D62">
+        <v>7364</v>
+      </c>
+      <c r="E62">
+        <v>2634</v>
+      </c>
+      <c r="F62">
+        <v>2835</v>
+      </c>
+      <c r="G62">
+        <v>8958</v>
+      </c>
+      <c r="H62">
+        <v>62843</v>
+      </c>
+      <c r="I62">
+        <v>4890</v>
+      </c>
+      <c r="J62">
+        <v>14557</v>
+      </c>
+      <c r="K62">
+        <v>236</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>10922</v>
+      </c>
+      <c r="O62">
+        <v>34743</v>
+      </c>
+      <c r="P62">
+        <v>15483</v>
+      </c>
+      <c r="Q62">
+        <v>-169</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>99000</v>
+      </c>
+      <c r="T62">
+        <v>28100</v>
+      </c>
+      <c r="U62">
+        <v>1870</v>
+      </c>
+      <c r="V62">
+        <v>2316</v>
+      </c>
+      <c r="W62">
+        <v>-272</v>
+      </c>
+      <c r="X62">
+        <v>-1613</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-544</v>
+      </c>
+      <c r="AA62">
+        <v>-729</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>554</v>
+      </c>
+      <c r="D63">
+        <v>6455</v>
+      </c>
+      <c r="E63">
+        <v>3101</v>
+      </c>
+      <c r="F63">
+        <v>2535</v>
+      </c>
+      <c r="G63">
+        <v>9009</v>
+      </c>
+      <c r="H63">
+        <v>63975</v>
+      </c>
+      <c r="I63">
+        <v>4779</v>
+      </c>
+      <c r="J63">
+        <v>13800</v>
+      </c>
+      <c r="K63">
+        <v>2564</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-1755</v>
+      </c>
+      <c r="N63">
+        <v>13178</v>
+      </c>
+      <c r="O63">
+        <v>36113</v>
+      </c>
+      <c r="P63">
+        <v>17428</v>
+      </c>
+      <c r="Q63">
+        <v>-532</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>27862</v>
+      </c>
+      <c r="U63">
+        <v>1338</v>
+      </c>
+      <c r="V63">
+        <v>-454</v>
+      </c>
+      <c r="W63">
+        <v>-269</v>
+      </c>
+      <c r="X63">
+        <v>207</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>464</v>
+      </c>
+      <c r="D64">
+        <v>6302</v>
+      </c>
+      <c r="E64">
+        <v>2796</v>
+      </c>
+      <c r="F64">
+        <v>2516</v>
+      </c>
+      <c r="G64">
+        <v>8979</v>
+      </c>
+      <c r="H64">
+        <v>63271</v>
+      </c>
+      <c r="I64">
+        <v>4562</v>
+      </c>
+      <c r="J64">
+        <v>13578</v>
+      </c>
+      <c r="K64">
+        <v>2691</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>12996</v>
+      </c>
+      <c r="O64">
+        <v>35595</v>
+      </c>
+      <c r="P64">
+        <v>17314</v>
+      </c>
+      <c r="Q64">
+        <v>417</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>27676</v>
+      </c>
+      <c r="U64">
+        <v>1755</v>
+      </c>
+      <c r="V64">
+        <v>791</v>
+      </c>
+      <c r="W64">
+        <v>-268</v>
+      </c>
+      <c r="X64">
+        <v>-179</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>548</v>
+      </c>
+      <c r="D65">
+        <v>6396</v>
+      </c>
+      <c r="E65">
+        <v>3019</v>
+      </c>
+      <c r="F65">
+        <v>2488</v>
+      </c>
+      <c r="G65">
+        <v>8855</v>
+      </c>
+      <c r="H65">
+        <v>63265</v>
+      </c>
+      <c r="I65">
+        <v>4884</v>
+      </c>
+      <c r="J65">
+        <v>13105</v>
+      </c>
+      <c r="K65">
+        <v>2490</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>13957</v>
+      </c>
+      <c r="O65">
+        <v>35688</v>
+      </c>
+      <c r="P65">
+        <v>17142</v>
+      </c>
+      <c r="Q65">
+        <v>-69</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>27577</v>
+      </c>
+      <c r="U65">
+        <v>1686</v>
+      </c>
+      <c r="V65">
+        <v>801</v>
+      </c>
+      <c r="W65">
+        <v>-264</v>
+      </c>
+      <c r="X65">
+        <v>-858</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>93</v>
+      </c>
+      <c r="D66">
+        <v>6770</v>
+      </c>
+      <c r="E66">
+        <v>2611</v>
+      </c>
+      <c r="F66">
+        <v>2589</v>
+      </c>
+      <c r="G66">
+        <v>8480</v>
+      </c>
+      <c r="H66">
+        <v>61538</v>
+      </c>
+      <c r="I66">
+        <v>5318</v>
+      </c>
+      <c r="J66">
+        <v>13217</v>
+      </c>
+      <c r="K66">
+        <v>2531</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>14417</v>
+      </c>
+      <c r="O66">
+        <v>36323</v>
+      </c>
+      <c r="P66">
+        <v>17237</v>
+      </c>
+      <c r="Q66">
+        <v>55</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>90000</v>
+      </c>
+      <c r="T66">
+        <v>25215</v>
+      </c>
+      <c r="U66">
+        <v>1741</v>
+      </c>
+      <c r="V66">
+        <v>1700</v>
+      </c>
+      <c r="W66">
+        <v>-293</v>
+      </c>
+      <c r="X66">
+        <v>-1032</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>630</v>
+      </c>
+      <c r="D67">
+        <v>6414</v>
+      </c>
+      <c r="E67">
+        <v>3035</v>
+      </c>
+      <c r="F67">
+        <v>2518</v>
+      </c>
+      <c r="G67">
+        <v>8415</v>
+      </c>
+      <c r="H67">
+        <v>62076</v>
+      </c>
+      <c r="I67">
+        <v>4897</v>
+      </c>
+      <c r="J67">
+        <v>12906</v>
+      </c>
+      <c r="K67">
+        <v>4250</v>
+      </c>
+      <c r="L67">
+        <v>-513</v>
+      </c>
+      <c r="M67">
+        <v>-979</v>
+      </c>
+      <c r="N67">
+        <v>15057</v>
+      </c>
+      <c r="O67">
+        <v>36357</v>
+      </c>
+      <c r="P67">
+        <v>18412</v>
+      </c>
+      <c r="Q67">
+        <v>-434</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>25719</v>
+      </c>
+      <c r="U67">
+        <v>1307</v>
+      </c>
+      <c r="V67">
+        <v>-557</v>
+      </c>
+      <c r="W67">
+        <v>-292</v>
+      </c>
+      <c r="X67">
+        <v>378</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>498</v>
+      </c>
+      <c r="D68">
+        <v>5986</v>
+      </c>
+      <c r="E68">
+        <v>2395</v>
+      </c>
+      <c r="F68">
+        <v>2314</v>
+      </c>
+      <c r="G68">
+        <v>8193</v>
+      </c>
+      <c r="H68">
+        <v>62757</v>
+      </c>
+      <c r="I68">
+        <v>5012</v>
+      </c>
+      <c r="J68">
+        <v>13226</v>
+      </c>
+      <c r="K68">
+        <v>4813</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>15563</v>
+      </c>
+      <c r="O68">
+        <v>36965</v>
+      </c>
+      <c r="P68">
+        <v>19042</v>
+      </c>
+      <c r="Q68">
+        <v>90</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>25792</v>
+      </c>
+      <c r="U68">
+        <v>1397</v>
+      </c>
+      <c r="V68">
+        <v>819</v>
+      </c>
+      <c r="W68">
+        <v>-289</v>
+      </c>
+      <c r="X68">
+        <v>-754</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>1005</v>
+      </c>
+      <c r="D69">
+        <v>6530</v>
+      </c>
+      <c r="E69">
+        <v>2981</v>
+      </c>
+      <c r="F69">
+        <v>2549</v>
+      </c>
+      <c r="G69">
+        <v>8155</v>
+      </c>
+      <c r="H69">
+        <v>63291</v>
+      </c>
+      <c r="I69">
+        <v>5139</v>
+      </c>
+      <c r="J69">
+        <v>12918</v>
+      </c>
+      <c r="K69">
+        <v>4551</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>16035</v>
+      </c>
+      <c r="O69">
+        <v>37192</v>
+      </c>
+      <c r="P69">
+        <v>19064</v>
+      </c>
+      <c r="Q69">
+        <v>-553</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>26099</v>
+      </c>
+      <c r="U69">
+        <v>844</v>
+      </c>
+      <c r="V69">
+        <v>535</v>
+      </c>
+      <c r="W69">
+        <v>-288</v>
+      </c>
+      <c r="X69">
+        <v>-1272</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>695</v>
+      </c>
+      <c r="D70">
+        <v>6966</v>
+      </c>
+      <c r="E70">
+        <v>2691</v>
+      </c>
+      <c r="F70">
+        <v>2653</v>
+      </c>
+      <c r="G70">
+        <v>7520</v>
+      </c>
+      <c r="H70">
+        <v>62957</v>
+      </c>
+      <c r="I70">
+        <v>5705</v>
+      </c>
+      <c r="J70">
+        <v>12972</v>
+      </c>
+      <c r="K70">
+        <v>3517</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>15793</v>
+      </c>
+      <c r="O70">
+        <v>36883</v>
+      </c>
+      <c r="P70">
+        <v>18172</v>
+      </c>
+      <c r="Q70">
+        <v>-83</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>83000</v>
+      </c>
+      <c r="T70">
+        <v>26074</v>
+      </c>
+      <c r="U70">
+        <v>761</v>
+      </c>
+      <c r="V70">
+        <v>1796</v>
+      </c>
+      <c r="W70">
+        <v>-329</v>
+      </c>
+      <c r="X70">
+        <v>-1713</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1046</v>
+      </c>
+      <c r="D71">
+        <v>6765</v>
+      </c>
+      <c r="E71">
+        <v>3113</v>
+      </c>
+      <c r="F71">
+        <v>2849</v>
+      </c>
+      <c r="G71">
+        <v>8370</v>
+      </c>
+      <c r="H71">
+        <v>64503</v>
+      </c>
+      <c r="I71">
+        <v>5727</v>
+      </c>
+      <c r="J71">
+        <v>13180</v>
+      </c>
+      <c r="K71">
+        <v>4779</v>
+      </c>
+      <c r="L71">
+        <v>-433</v>
+      </c>
+      <c r="M71">
+        <v>-738</v>
+      </c>
+      <c r="N71">
+        <v>16798</v>
+      </c>
+      <c r="O71">
+        <v>37953</v>
+      </c>
+      <c r="P71">
+        <v>19479</v>
+      </c>
+      <c r="Q71">
+        <v>369</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>26550</v>
+      </c>
+      <c r="U71">
+        <v>1130</v>
+      </c>
+      <c r="V71">
+        <v>407</v>
+      </c>
+      <c r="W71">
+        <v>-327</v>
+      </c>
+      <c r="X71">
+        <v>229</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>318</v>
+      </c>
+      <c r="D72">
+        <v>6112</v>
+      </c>
+      <c r="E72">
+        <v>2416</v>
+      </c>
+      <c r="F72">
+        <v>2540</v>
+      </c>
+      <c r="G72">
+        <v>8202</v>
+      </c>
+      <c r="H72">
+        <v>62974</v>
+      </c>
+      <c r="I72">
+        <v>5248</v>
+      </c>
+      <c r="J72">
+        <v>14857</v>
+      </c>
+      <c r="K72">
+        <v>4074</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>14832</v>
+      </c>
+      <c r="O72">
+        <v>37687</v>
+      </c>
+      <c r="P72">
+        <v>20119</v>
+      </c>
+      <c r="Q72">
+        <v>116</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>25287</v>
+      </c>
+      <c r="U72">
+        <v>1246</v>
+      </c>
+      <c r="V72">
+        <v>775</v>
+      </c>
+      <c r="W72">
+        <v>-330</v>
+      </c>
+      <c r="X72">
+        <v>160</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1194</v>
+      </c>
+      <c r="D73">
+        <v>6288</v>
+      </c>
+      <c r="E73">
+        <v>2732</v>
+      </c>
+      <c r="F73">
+        <v>2414</v>
+      </c>
+      <c r="G73">
+        <v>8722</v>
+      </c>
+      <c r="H73">
+        <v>63918</v>
+      </c>
+      <c r="I73">
+        <v>5374</v>
+      </c>
+      <c r="J73">
+        <v>14852</v>
+      </c>
+      <c r="K73">
+        <v>4811</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>15508</v>
+      </c>
+      <c r="O73">
+        <v>38386</v>
+      </c>
+      <c r="P73">
+        <v>20423</v>
+      </c>
+      <c r="Q73">
+        <v>127</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>25532</v>
+      </c>
+      <c r="U73">
+        <v>1373</v>
+      </c>
+      <c r="V73">
+        <v>703</v>
+      </c>
+      <c r="W73">
+        <v>-323</v>
+      </c>
+      <c r="X73">
+        <v>-396</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>823</v>
+      </c>
+      <c r="D74">
+        <v>6773</v>
+      </c>
+      <c r="E74">
+        <v>2262</v>
+      </c>
+      <c r="F74">
+        <v>2549</v>
+      </c>
+      <c r="G74">
+        <v>7604</v>
+      </c>
+      <c r="H74">
+        <v>62729</v>
+      </c>
+      <c r="I74">
+        <v>5794</v>
+      </c>
+      <c r="J74">
+        <v>12532</v>
+      </c>
+      <c r="K74">
+        <v>3192</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>16737</v>
+      </c>
+      <c r="O74">
+        <v>37016</v>
+      </c>
+      <c r="P74">
+        <v>18727</v>
+      </c>
+      <c r="Q74">
+        <v>-273</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>80000</v>
+      </c>
+      <c r="T74">
+        <v>25713</v>
+      </c>
+      <c r="U74">
+        <v>1100</v>
+      </c>
+      <c r="V74">
+        <v>2063</v>
+      </c>
+      <c r="W74">
+        <v>-379</v>
+      </c>
+      <c r="X74">
+        <v>-2322</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>914</v>
+      </c>
+      <c r="D75">
+        <v>6538</v>
+      </c>
+      <c r="E75">
+        <v>2781</v>
+      </c>
+      <c r="F75">
+        <v>2593</v>
+      </c>
+      <c r="G75">
+        <v>8539</v>
+      </c>
+      <c r="H75">
+        <v>64162</v>
+      </c>
+      <c r="I75">
+        <v>5566</v>
+      </c>
+      <c r="J75">
+        <v>12437</v>
+      </c>
+      <c r="K75">
+        <v>4065</v>
+      </c>
+      <c r="L75">
+        <v>-1549</v>
+      </c>
+      <c r="M75">
+        <v>-403</v>
+      </c>
+      <c r="N75">
+        <v>17721</v>
+      </c>
+      <c r="O75">
+        <v>38253</v>
+      </c>
+      <c r="P75">
+        <v>20431</v>
+      </c>
+      <c r="Q75">
+        <v>442</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>25909</v>
+      </c>
+      <c r="U75">
+        <v>1542</v>
+      </c>
+      <c r="V75">
+        <v>465</v>
+      </c>
+      <c r="W75">
+        <v>-380</v>
+      </c>
+      <c r="X75">
+        <v>201</v>
+      </c>
+      <c r="Y75">
+        <v>507</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>856</v>
+      </c>
+      <c r="D76">
+        <v>6062</v>
+      </c>
+      <c r="E76">
+        <v>2179</v>
+      </c>
+      <c r="F76">
+        <v>2469</v>
+      </c>
+      <c r="G76">
+        <v>7836</v>
+      </c>
+      <c r="H76">
+        <v>63573</v>
+      </c>
+      <c r="I76">
+        <v>5312</v>
+      </c>
+      <c r="J76">
+        <v>11764</v>
+      </c>
+      <c r="K76">
+        <v>3780</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>17798</v>
+      </c>
+      <c r="O76">
+        <v>37399</v>
+      </c>
+      <c r="P76">
+        <v>20377</v>
+      </c>
+      <c r="Q76">
+        <v>-294</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>26174</v>
+      </c>
+      <c r="U76">
+        <v>1248</v>
+      </c>
+      <c r="V76">
+        <v>581</v>
+      </c>
+      <c r="W76">
+        <v>-373</v>
+      </c>
+      <c r="X76">
+        <v>-840</v>
+      </c>
+      <c r="Y76">
+        <v>487</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>1426</v>
+      </c>
+      <c r="D77">
+        <v>6355</v>
+      </c>
+      <c r="E77">
+        <v>2492</v>
+      </c>
+      <c r="F77">
+        <v>2516</v>
+      </c>
+      <c r="G77">
+        <v>8630</v>
+      </c>
+      <c r="H77">
+        <v>63895</v>
+      </c>
+      <c r="I77">
+        <v>5322</v>
+      </c>
+      <c r="J77">
+        <v>12593</v>
+      </c>
+      <c r="K77">
+        <v>3253</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>17120</v>
+      </c>
+      <c r="O77">
+        <v>37021</v>
+      </c>
+      <c r="P77">
+        <v>20357</v>
+      </c>
+      <c r="Q77">
+        <v>289</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>26874</v>
+      </c>
+      <c r="U77">
+        <v>1537</v>
+      </c>
+      <c r="V77">
+        <v>836</v>
+      </c>
+      <c r="W77">
+        <v>-378</v>
+      </c>
+      <c r="X77">
+        <v>-47</v>
+      </c>
+      <c r="Y77">
+        <v>487</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>733</v>
+      </c>
+      <c r="D78">
+        <v>6913</v>
+      </c>
+      <c r="E78">
+        <v>2212</v>
+      </c>
+      <c r="F78">
+        <v>2759</v>
+      </c>
+      <c r="G78">
+        <v>7630</v>
+      </c>
+      <c r="H78">
+        <v>64515</v>
+      </c>
+      <c r="I78">
+        <v>5853</v>
+      </c>
+      <c r="J78">
+        <v>14116</v>
+      </c>
+      <c r="K78">
+        <v>2638</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>15322</v>
+      </c>
+      <c r="O78">
+        <v>37198</v>
+      </c>
+      <c r="P78">
+        <v>19197</v>
+      </c>
+      <c r="Q78">
+        <v>-209</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>80000</v>
+      </c>
+      <c r="T78">
+        <v>27317</v>
+      </c>
+      <c r="U78">
+        <v>1291</v>
+      </c>
+      <c r="V78">
+        <v>2083</v>
+      </c>
+      <c r="W78">
+        <v>-411</v>
+      </c>
+      <c r="X78">
+        <v>-2101</v>
+      </c>
+      <c r="Y78">
+        <v>494</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>753</v>
+      </c>
+      <c r="D79">
+        <v>6707</v>
+      </c>
+      <c r="E79">
+        <v>2628</v>
+      </c>
+      <c r="F79">
+        <v>2451</v>
+      </c>
+      <c r="G79">
+        <v>9068</v>
+      </c>
+      <c r="H79">
+        <v>63598</v>
+      </c>
+      <c r="I79">
+        <v>5554</v>
+      </c>
+      <c r="J79">
+        <v>13354</v>
+      </c>
+      <c r="K79">
+        <v>4764</v>
+      </c>
+      <c r="L79">
+        <v>-497</v>
+      </c>
+      <c r="M79">
+        <v>-670</v>
+      </c>
+      <c r="N79">
+        <v>17004</v>
+      </c>
+      <c r="O79">
+        <v>37846</v>
+      </c>
+      <c r="P79">
+        <v>20236</v>
+      </c>
+      <c r="Q79">
+        <v>624</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>25752</v>
+      </c>
+      <c r="U79">
+        <v>1925</v>
+      </c>
+      <c r="V79">
+        <v>284</v>
+      </c>
+      <c r="W79">
+        <v>-408</v>
+      </c>
+      <c r="X79">
+        <v>455</v>
+      </c>
+      <c r="Y79">
+        <v>433</v>
+      </c>
+      <c r="Z79">
+        <v>185</v>
+      </c>
+      <c r="AA79">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>527</v>
+      </c>
+      <c r="D80">
+        <v>5911</v>
+      </c>
+      <c r="E80">
+        <v>1979</v>
+      </c>
+      <c r="F80">
+        <v>2331</v>
+      </c>
+      <c r="G80">
+        <v>7995</v>
+      </c>
+      <c r="H80">
+        <v>64194</v>
+      </c>
+      <c r="I80">
+        <v>5466</v>
+      </c>
+      <c r="J80">
+        <v>16004</v>
+      </c>
+      <c r="K80">
+        <v>2755</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>14539</v>
+      </c>
+      <c r="O80">
+        <v>38097</v>
+      </c>
+      <c r="P80">
+        <v>20243</v>
+      </c>
+      <c r="Q80">
+        <v>-321</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>26097</v>
+      </c>
+      <c r="U80">
+        <v>1602</v>
+      </c>
+      <c r="V80">
+        <v>1274</v>
+      </c>
+      <c r="W80">
+        <v>-410</v>
+      </c>
+      <c r="X80">
+        <v>-636</v>
+      </c>
+      <c r="Y80">
+        <v>479</v>
+      </c>
+      <c r="Z80">
+        <v>-185</v>
+      </c>
+      <c r="AA80">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>1119</v>
+      </c>
+      <c r="D81">
+        <v>6665</v>
+      </c>
+      <c r="E81">
+        <v>2491</v>
+      </c>
+      <c r="F81">
+        <v>2792</v>
+      </c>
+      <c r="G81">
+        <v>9446</v>
+      </c>
+      <c r="H81">
+        <v>66249</v>
+      </c>
+      <c r="I81">
+        <v>5597</v>
+      </c>
+      <c r="J81">
+        <v>18916</v>
+      </c>
+      <c r="K81">
+        <v>199</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>12685</v>
+      </c>
+      <c r="O81">
+        <v>39221</v>
+      </c>
+      <c r="P81">
+        <v>20774</v>
+      </c>
+      <c r="Q81">
+        <v>1159</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>27028</v>
+      </c>
+      <c r="U81">
+        <v>2759</v>
+      </c>
+      <c r="V81">
+        <v>757</v>
+      </c>
+      <c r="W81">
+        <v>-409</v>
+      </c>
+      <c r="X81">
+        <v>-314</v>
+      </c>
+      <c r="Y81">
+        <v>484</v>
+      </c>
+      <c r="Z81">
+        <v>1357</v>
+      </c>
+      <c r="AA81">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>1156</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>7298</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>2297</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>2872</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>9979</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>67810</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>6209</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>17094</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>29</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>15159</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>40156</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>21046</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>860</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>79000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>27654</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>3619</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1649</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-451</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-1720</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>652</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-1357</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>1156</v>
       </c>
     </row>
